--- a/src/main/resources/monitoradorModelo.xlsx
+++ b/src/main/resources/monitoradorModelo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davi\IdeaProjects\Projeto_Estagio\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6D00F0-0191-44BE-84DF-E51A616DB378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A753ADD-D70F-4D13-8896-6A63ABFC7893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00D94D28-8C17-4437-BEC9-50C95BE781F3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00D94D28-8C17-4437-BEC9-50C95BE781F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Tipo</t>
   </si>
@@ -98,26 +98,41 @@
     <t>Ativo</t>
   </si>
   <si>
-    <t>Juridica</t>
-  </si>
-  <si>
-    <t>colinha@gmail</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
-    <t>43.791.123/0001-09</t>
-  </si>
-  <si>
-    <t>ChnhaLATDA</t>
+    <t>Fisica</t>
+  </si>
+  <si>
+    <t>245.971.710-53</t>
+  </si>
+  <si>
+    <t>Heltaiceo</t>
+  </si>
+  <si>
+    <t>catrice363@uorak.com</t>
+  </si>
+  <si>
+    <t>13.830.428-2</t>
+  </si>
+  <si>
+    <t>891.026.580-97</t>
+  </si>
+  <si>
+    <t>Xahus</t>
+  </si>
+  <si>
+    <t>pajavo4206@trackden.com</t>
+  </si>
+  <si>
+    <t>14598086-8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,13 +166,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -208,13 +216,14 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -531,19 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C970990-0CF2-427C-A9F5-C9BF47EDAAE8}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
@@ -580,27 +590,56 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3">
+        <v>37941</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>1223456</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3">
+        <v>36814</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{7EFD9DC8-FB3C-49DF-B4F8-844B4FD8E772}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{ABE95D1C-43CB-4AE0-8A0D-F7731F3F7E37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
